--- a/spliced/struggle/2023-03-25_18-15-46/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-46/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0645989999175071</v>
+        <v>1.700343370437622</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1014036312699318</v>
+        <v>-1.53525710105896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0325285755097866</v>
+        <v>1.785559058189392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-1.893071413040161</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4514294266700744</v>
+        <v>-7.137654781341553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2185370475053787</v>
+        <v>6.563594341278076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8515461683273315</v>
+        <v>-0.171042263507843</v>
       </c>
       <c r="B4" t="n">
-        <v>3.586237192153931</v>
+        <v>-0.6296493411064148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0175623763352632</v>
+        <v>0.4955644309520721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.076178312301636</v>
+        <v>-0.4091269969940185</v>
       </c>
       <c r="B5" t="n">
-        <v>1.494481801986694</v>
+        <v>-1.411251425743103</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.400255799293518</v>
+        <v>1.499826908111572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.21974515914917</v>
+        <v>0.5923865437507629</v>
       </c>
       <c r="B6" t="n">
-        <v>1.048092007637024</v>
+        <v>-0.901637077331543</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.542726516723633</v>
+        <v>0.6020076870918274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3668245673179626</v>
+        <v>4.378682136535645</v>
       </c>
       <c r="B7" t="n">
-        <v>1.540907621383667</v>
+        <v>-3.456580877304077</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2811507284641266</v>
+        <v>2.736981630325317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.093156948685646</v>
+        <v>-1.802816033363343</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.188896536827087</v>
+        <v>0.8972083330154419</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3588833212852478</v>
+        <v>0.8159632682800293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.700343370437622</v>
+        <v>-1.785711884498596</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.53525710105896</v>
+        <v>2.000431060791016</v>
       </c>
       <c r="C9" t="n">
-        <v>1.785559058189392</v>
+        <v>-1.260367751121521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.893071413040161</v>
+        <v>-1.425454020500183</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.137654781341553</v>
+        <v>2.0323486328125</v>
       </c>
       <c r="C10" t="n">
-        <v>6.563594341278076</v>
+        <v>-2.473546028137207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.171042263507843</v>
+        <v>-0.1524108797311782</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6296493411064148</v>
+        <v>-0.5303837656974792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4955644309520721</v>
+        <v>-1.655902981758118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4091269969940185</v>
+        <v>0.9138544201850892</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.411251425743103</v>
+        <v>0.08445212244987479</v>
       </c>
       <c r="C12" t="n">
-        <v>1.499826908111572</v>
+        <v>-1.289994716644287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5923865437507629</v>
+        <v>-0.2788599729537964</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.901637077331543</v>
+        <v>0.1840231567621231</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6020076870918274</v>
+        <v>-1.028238892555237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.378682136535645</v>
+        <v>0.3350595831871032</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.456580877304077</v>
+        <v>1.075122833251953</v>
       </c>
       <c r="C14" t="n">
-        <v>2.736981630325317</v>
+        <v>1.244179844856262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.802816033363343</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8972083330154419</v>
+        <v>4.903262615203857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8159632682800293</v>
+        <v>-0.6261368989944458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.785711884498596</v>
+        <v>-2.083661317825317</v>
       </c>
       <c r="B16" t="n">
-        <v>2.000431060791016</v>
+        <v>-0.8663596510887146</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.260367751121521</v>
+        <v>-1.775479793548584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.425454020500183</v>
+        <v>-4.610199928283691</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0323486328125</v>
+        <v>3.776979923248291</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.473546028137207</v>
+        <v>-1.897194743156433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1524108797311782</v>
+        <v>0.9382890462875366</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.5303837656974792</v>
+        <v>0.2889392673969269</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.655902981758118</v>
+        <v>0.8718574047088623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9138544201850892</v>
+        <v>0.5700899958610535</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08445212244987479</v>
+        <v>-1.021672129631042</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.289994716644287</v>
+        <v>0.4189008474349975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2788599729537964</v>
+        <v>0.1930334120988845</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1840231567621231</v>
+        <v>-0.1259909570217132</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.028238892555237</v>
+        <v>2.802496910095215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3350595831871032</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="B21" t="n">
-        <v>1.075122833251953</v>
+        <v>-2.771648406982422</v>
       </c>
       <c r="C21" t="n">
-        <v>1.244179844856262</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.2061670273542404</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.903262615203857</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.6261368989944458</v>
+        <v>3.70489764213562</v>
       </c>
     </row>
   </sheetData>
